--- a/Lacin_summary_FinalConfirmation.xlsx
+++ b/Lacin_summary_FinalConfirmation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66CB873-109A-4103-AD24-A8A10298BE9A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252FF60D-34AE-4E70-8A02-8C923B59A29A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{455A0B67-D7C4-4CEC-8A92-80CA2FE67152}"/>
   </bookViews>

--- a/Lacin_summary_FinalConfirmation.xlsx
+++ b/Lacin_summary_FinalConfirmation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252FF60D-34AE-4E70-8A02-8C923B59A29A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F580016A-12EC-43AE-B4D2-94EA7C83FBA6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{455A0B67-D7C4-4CEC-8A92-80CA2FE67152}"/>
+    <workbookView xWindow="1800" yWindow="1365" windowWidth="27000" windowHeight="14235" xr2:uid="{455A0B67-D7C4-4CEC-8A92-80CA2FE67152}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
